--- a/biology/Botanique/Fusaea_longifolia/Fusaea_longifolia.xlsx
+++ b/biology/Botanique/Fusaea_longifolia/Fusaea_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusaea longifolia est une espèce de petit arbre appartenant à la famille des Annonaceae. Il s'agit de l'espèce type du genre Fusaea Saff..
-Elle est connue en Guyane sous les noms de Malmanmanyaret, Mâle mamanyaret, Mamayawé, Maman-yawé (créole)[4], Aza odou (Saramaka), Kãwĩala,  Yãwĩyiki, Yanw'kala, Yanwicara (Wayãpi), Maichi (Paramaka), ou anciennement Pinaioua (Galibi cf. Aublet 1775)[5]. 
-Ailleurs, on l'appelle Majagua de tierra firme[6], Majagua au Venezuela, Anón de monte, Cargadero amargo, Chirimoyo, Nagu'i cuerinegro, Yaya en Colombie, Bergipanta, Boszuurzak, Jari-jari, Langbladige jari-jari, Panta (Sranan tongo), Peperhout au Suriname, Nanguehue, Moncapatahue (Waorani) en Équateur, Anona masha, Bara caspi, Chirimuya, Espintana, Tortuga caspi, Yeis (Huambisa) au Pérou, Araticum, Ata, Biribá envira, Envira ata, Envira-menjuba, Envireira, Espintana, Karãtúã'y, Latoure (Mucajaí-Uaicá), Pináyw-hu [= arbre à hameçons] au Brésil[5].
+Elle est connue en Guyane sous les noms de Malmanmanyaret, Mâle mamanyaret, Mamayawé, Maman-yawé (créole), Aza odou (Saramaka), Kãwĩala,  Yãwĩyiki, Yanw'kala, Yanwicara (Wayãpi), Maichi (Paramaka), ou anciennement Pinaioua (Galibi cf. Aublet 1775). 
+Ailleurs, on l'appelle Majagua de tierra firme, Majagua au Venezuela, Anón de monte, Cargadero amargo, Chirimoyo, Nagu'i cuerinegro, Yaya en Colombie, Bergipanta, Boszuurzak, Jari-jari, Langbladige jari-jari, Panta (Sranan tongo), Peperhout au Suriname, Nanguehue, Moncapatahue (Waorani) en Équateur, Anona masha, Bara caspi, Chirimuya, Espintana, Tortuga caspi, Yeis (Huambisa) au Pérou, Araticum, Ata, Biribá envira, Envira ata, Envira-menjuba, Envireira, Espintana, Karãtúã'y, Latoure (Mucajaí-Uaicá), Pináyw-hu [= arbre à hameçons] au Brésil.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusaea longifolia est une arbre atteignant (4)6-12 m, pour 8-15 cm de diamètre.
 Les jeunes rameaux sont densément recouverts de poils bruns, apprimés (ferrugineux-puberulents).
@@ -525,7 +539,7 @@
 Les sépales mesurent 10-16 mm, et sont de forme ovale, unis à leur base, caducs à l'exception de la partie basale conique, la partie basale ayant un contour circulaire d'un diamètre de 10-15 mm. 
 Les pétales, de forme ovale-oblongue obtuse, séricés-roussâtres, densément sericulés abaxialement, de couleur verte à blanche, devenant brun-jaunâtre, mesurent environ 3 × 2 cm à l'anthèse : de 3-4 cm pour ceux extérieurs, et 4-5 cm pour les intérieurs.
 Les étamines sont longues de 3 mm, et les staminodes de 4-6(8) mm.
-Les fruits charnus sont globuleux, verts, glabres, lisses ou aréolés, et mesurent environ (5)6-10 cm de diamètre[6],[7],[4].
+Les fruits charnus sont globuleux, verts, glabres, lisses ou aréolés, et mesurent environ (5)6-10 cm de diamètre.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Fusaea longifolia en Amazonie colombienne, au Venezuela (Bolívar : près de Santa María de Erebato, Amazonas : bassin du Río Guayapo), au Guyana, au Suriname, en Guyane (ex: Réserve naturelle régionale Trésor[8]), en Équateur, au Pérou, au Brésil, en Bolivie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Fusaea longifolia en Amazonie colombienne, au Venezuela (Bolívar : près de Santa María de Erebato, Amazonas : bassin du Río Guayapo), au Guyana, au Suriname, en Guyane (ex: Réserve naturelle régionale Trésor), en Équateur, au Pérou, au Brésil, en Bolivie.
 </t>
         </is>
       </c>
@@ -585,13 +601,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fusaea longifolia croît dans les forêts de pente, autour de 100-400 m d'altitude au Venezuela[6].
-Il fleurit en Guyane en janvier, février, avril, juillet, août, septembre, et fructifie en mars et mai[4].
-Le bois contient de petits cristaux rhombiques dans ses cellules rayonnantes[5].
-Ses grains de pollen sont organisés en tétrades[9],[10].
-Les pollinisateurs de Fusaea longifolia ont été étudiés[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fusaea longifolia croît dans les forêts de pente, autour de 100-400 m d'altitude au Venezuela.
+Il fleurit en Guyane en janvier, février, avril, juillet, août, septembre, et fructifie en mars et mai.
+Le bois contient de petits cristaux rhombiques dans ses cellules rayonnantes.
+Ses grains de pollen sont organisés en tétrades,.
+Les pollinisateurs de Fusaea longifolia ont été étudiés.
 </t>
         </is>
       </c>
@@ -620,12 +638,14 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits sont comestibles[6],[12].
-L'écorce est utilisée pour fabriquer des sangles pour les porteurs en Colombie[5].
-En Guyane, le bois sert à fabriquer des "takaris" (perches pour guider les pirogues)[5].
-Au Brésil, l'écorce fournit un remède contre la diarrhée (chez les Ka'apor[13]), et le bois sert pour le chauffage et la construction[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont comestibles,.
+L'écorce est utilisée pour fabriquer des sangles pour les porteurs en Colombie.
+En Guyane, le bois sert à fabriquer des "takaris" (perches pour guider les pirogues).
+Au Brésil, l'écorce fournit un remède contre la diarrhée (chez les Ka'apor), et le bois sert pour le chauffage et la construction.
 </t>
         </is>
       </c>
@@ -654,12 +674,14 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile essentielle des parties aériennes de Fusaea longifolia contient 21 constituants, et l'on a testé ses propriétés trypanocides et antibactériennes[14].
-La tige contient des alcaloïdes[15] et des constituants volatils tels la O-méthylmoschatoline, la stepholidine, et des sesquiterpénoïdes (12,5% de a-cadinol et 12,0% de spatulenol)[16].
-Les propriétés Antileishmaniennes[17] et antivirales contre l'Herpes simplex vírus de type 1[18] de ses alcaloïdes ont été étudiées.
-Les extraits éthanoliques et méthanoliques de Fusaea longifolia présentent des activités antioxydantes et antibactériennes[19].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle des parties aériennes de Fusaea longifolia contient 21 constituants, et l'on a testé ses propriétés trypanocides et antibactériennes.
+La tige contient des alcaloïdes et des constituants volatils tels la O-méthylmoschatoline, la stepholidine, et des sesquiterpénoïdes (12,5% de a-cadinol et 12,0% de spatulenol).
+Les propriétés Antileishmaniennes et antivirales contre l'Herpes simplex vírus de type 1 de ses alcaloïdes ont été étudiées.
+Les extraits éthanoliques et méthanoliques de Fusaea longifolia présentent des activités antioxydantes et antibactériennes.
 </t>
         </is>
       </c>
@@ -688,9 +710,11 @@
           <t>Protologue et histoire naturelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante pour Annona longifolia[20] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante pour Annona longifolia : 
 « 3. ANNONA (longifolia) fructu rubro, punctato &amp; reticulato. (Tabula 248.) 
 Frutex trunco ramoſo, quindecim-pedali ; ramis hinc &amp; indè ſparſis. Folia alterna, glabra, anguſta, ovato-oblonga, acuta, integerrima, brevi petiolata. Flores ſolitarii, axillares, longè pedunculati. Corolla ampla, petalis purpuraſcentibus. Fructus ; bacca carnoſa, ovata, ſubrotunda, punctata, reticulata, incarnata, gelatinoſa, edulis. 
 Florebat, fructumque ferebat Maio. 
@@ -703,14 +727,14 @@
 Cet arbre eſt nommé PINAIOUA par les Garipons &amp; par les Galibis. Ils en mangent le fruit avec délice, &amp; il eſt de très bon goût. 
 Je l'ai rencontre au bord de la crique des Galibis, dans le mois de Mai. »
 — Fusée-Aublet, 1775.
-En 1880, Sagot rapportait ceci sur Annona longifolia[22] :
+En 1880, Sagot rapportait ceci sur Annona longifolia :
 « A. longifolia Aubl., t. MS.An. sphærocarpa Splitg. ex descr. Fusæa Bail.
 Species insignis, flore ab aliis Anonis satis diversa, sed fructu carnoso polycarpo, ad Anonas arcte açcedens. Caulis subsarmentosus. Calix magnus aliquando usque ad basim trifidus, aliquando apice brevissime aperto tridentatus et in anthesi irregulariter ruptus. Petala magna, sericeo-pilosa, margine imbricata, ovato-spathulata, interiora paulo majora. Stamina exteriora sterilia, in appendices pelaloideos parvos conversa. Fructus globosus, laevis, areolatus, virens, magnitudine aurantii. Caro ex Aublet et Mélinon rubens, gustui grata, edulis. Semina parva.
 Crescit in sylvis satis frequens, sed raro potest collegi ; vidi fructum ultra manus facultatem. »
 — Paul Antoine Sagot, 1880.
 [ Une espèce remarquable, assez différente par la fleur des autres Anona, mais avec un fruit polycarpique charnu, se rapprochant de près des Anona. Sous-ramification de la tige. Calice grand parfois trifide à la base, parfois tridenté à l'apex très courtement ouvert et irrégulièrement brisé à l'anthèse. Pétales grands, à poils soyeux, bords chevauchants, ovales-spathulés, intérieur un peu plus grand. Étamines externes stériles, transformées en petits appendices péloïdes. Le fruit est globuleux, lisse, aplati, vert, de la taille d'une orange. Selon Aublet et Mélinon, la chair est rouge, de goût agréable, comestible. Petites graines.
 Il pousse assez fréquemment dans la forêt, mais peut rarement être récolté ; J'ai vu des fruits au-delà de la capacité de ma main. ]
-En 1914, à l'occasion de la recombinaison du taxon, le botaniste William Edwin Safford propose la description suivante pour Fusaea longifolia[1] :
+En 1914, à l'occasion de la recombinaison du taxon, le botaniste William Edwin Safford propose la description suivante pour Fusaea longifolia :
 « Fusaea longifolia (Aubl.) Safford.
 Annotia longifolia Aubl. Pl. Guian. 1 : 615. pl. 248. 1775.
 Duguetia longifolia Baill. Adansonia 8: 327. 1868.
